--- a/Data/Regression/news_index_dire_lex_PMI_q.xlsx
+++ b/Data/Regression/news_index_dire_lex_PMI_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07242905290800587</v>
+        <v>0.03550580966195583</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004333123473749155</v>
+        <v>0.03401096496013507</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06582443534433012</v>
+        <v>0.03010798952135784</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01353295382184829</v>
+        <v>0.02462131868841515</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05255303213819294</v>
+        <v>0.03682932161588775</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04398087927995262</v>
+        <v>0.02250801358267078</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.02463161672279117</v>
+        <v>-0.01150046428750512</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06754550670496806</v>
+        <v>0.01651502028761895</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0787981727710925</v>
+        <v>0.03240693465493649</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0006088804317349755</v>
+        <v>0.02691127188161524</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0004176112134443452</v>
+        <v>0.02423024925503571</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0438544397177886</v>
+        <v>-0.003781616532237522</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02058684791788943</v>
+        <v>0.006385739896364941</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.01040623477182154</v>
+        <v>0.01377090544802718</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02569249046739631</v>
+        <v>0.01726576282793756</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.02830554654805434</v>
+        <v>0.01302807953519282</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.004538624985854542</v>
+        <v>0.01155647884703389</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.01599303744646368</v>
+        <v>-0.002742943163677448</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01882682281794856</v>
+        <v>-0.001328771892782031</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.02041553028034203</v>
+        <v>-0.003466250538120861</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.07071691416667891</v>
+        <v>-0.01020848194823634</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.03089663843768527</v>
+        <v>-0.006097478200848846</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03370047719821825</v>
+        <v>0.002296312645530131</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0177270640257231</v>
+        <v>0.007441399727191797</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01858712175994551</v>
+        <v>0.006388003226783764</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01320520156930239</v>
+        <v>0.01371050645408651</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03353232938806891</v>
+        <v>0.01244491075070353</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006735907863867821</v>
+        <v>-0.002527082278133973</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.01279262423555823</v>
+        <v>-0.00472820083138332</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02127586890146814</v>
+        <v>0.005146843692594761</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02259359021730896</v>
+        <v>-0.007841192932177709</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0185678302542411</v>
+        <v>-0.01243247834184069</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.02462637980947493</v>
+        <v>-0.002478445576230547</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05533465565580292</v>
+        <v>0.02655425358897489</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09547726947836593</v>
+        <v>-0.0003448591185026333</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05064381142954387</v>
+        <v>0.0007766153363052895</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03974612022641492</v>
+        <v>0.01283278701159674</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.01942002557450875</v>
+        <v>0.008712780235139635</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0190127749897577</v>
+        <v>0.02957035625399916</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04281919438012632</v>
+        <v>0.01738293912229865</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01808009515272779</v>
+        <v>0.0621047865479137</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>0.004919968592792246</v>
+        <v>0.03814152173016321</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.01717827066485494</v>
+        <v>0.02771359542758376</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0002408538319555538</v>
+        <v>-0.01125119937414677</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04710294178860292</v>
+        <v>0.05026517539865058</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.02491045334512045</v>
+        <v>0.01914005141806927</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.01014606463897942</v>
+        <v>0.02787518683554724</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>0.008467237710460597</v>
+        <v>0.002184966430248447</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02782451014393274</v>
+        <v>0.03636757892550383</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.07186630811975163</v>
+        <v>-0.04481574567080307</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01450209338209728</v>
+        <v>0.005507321621917172</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01314080999529196</v>
+        <v>-0.007973265573271188</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04685702293672373</v>
+        <v>0.001942739527436703</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0374915598756862</v>
+        <v>0.03533151720217827</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06499390605030381</v>
+        <v>0.08939309578189895</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06945408580274258</v>
+        <v>0.0649552714707556</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04836455704576969</v>
+        <v>0.04628036660675313</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06088782099284709</v>
+        <v>0.02061880822602892</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04858002047263821</v>
+        <v>0.05221667746031905</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01794687781576718</v>
+        <v>0.04968968847647091</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>0.04758727311766555</v>
+        <v>0.04756879023406526</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>0.05399057138776656</v>
+        <v>0.05968703380837581</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0488786884749744</v>
+        <v>0.03654180084403981</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02227679242831634</v>
+        <v>0.05774880759125068</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005391217483963138</v>
+        <v>0.03485974705398358</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.007151331336637196</v>
+        <v>0.07208267158530253</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05858186172825676</v>
+        <v>0.08896991080359089</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04197479395258302</v>
+        <v>0.07602845776319452</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03079567334522557</v>
+        <v>0.06754875772243564</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0306838616837994</v>
+        <v>0.06063235437997096</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.008764707019827032</v>
+        <v>0.07463738207660019</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.02981065736765108</v>
+        <v>-0.001167388007943472</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.007808399456908306</v>
+        <v>-0.002667582428519348</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>0.007666004504569899</v>
+        <v>0.005273538402033912</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.01191294157189475</v>
+        <v>0.009010121253880841</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.001579356811575241</v>
+        <v>0.00756799000166896</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03301157838346055</v>
+        <v>0.03249076042433505</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01070496873558744</v>
+        <v>0.02003795473034863</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02360423249383092</v>
+        <v>0.001855828827320929</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05315630453612667</v>
+        <v>0.03544953527760352</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01809623623490214</v>
+        <v>0.04916592428855539</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03026018990712658</v>
+        <v>0.03671458273480745</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>0.00515348621495618</v>
+        <v>0.02611590693951097</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.006034156892826262</v>
+        <v>0.0172960698662915</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02088597849739512</v>
+        <v>0.03274814691251769</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.008427206199294891</v>
+        <v>0.01685256548535474</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.005810101053955842</v>
+        <v>0.01860606930505664</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>0.003037895196354399</v>
+        <v>-9.396375377091825e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.03484063161267456</v>
+        <v>0.003742614697072249</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.03413420982311476</v>
+        <v>-0.01929977302775149</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.0230282065089323</v>
+        <v>-0.007745192636004179</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.07144410755510922</v>
+        <v>-0.07047419499353663</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.09016408911132895</v>
+        <v>-0.08829750965981964</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1140810379047982</v>
+        <v>-0.110862433991617</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1180658846923777</v>
+        <v>-0.1076099497752502</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1490685856165249</v>
+        <v>-0.115084701450155</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.09094432948948286</v>
+        <v>-0.1311650521669791</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.06206446186014484</v>
+        <v>-0.03303240009343292</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.09744663756030515</v>
+        <v>-0.04430352676123823</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1168702526511987</v>
+        <v>-0.06274921836392072</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1049548660309857</v>
+        <v>-0.06687173599304093</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1077941467711402</v>
+        <v>-0.0718658631595407</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>0.02691415022176822</v>
+        <v>-0.02386706652430869</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.02009689032354548</v>
+        <v>0.007378741797992462</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.001563852322482417</v>
+        <v>0.003540437108901699</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.02840719032801356</v>
+        <v>0.007660130524305549</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.04975920660044642</v>
+        <v>-0.0009102208145374869</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>0.05527031711618744</v>
+        <v>0.009394674854155745</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.05834413719176338</v>
+        <v>0.002261033142072478</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.01317559521037435</v>
+        <v>0.02574606969634912</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01450155126017744</v>
+        <v>0.05072205118679996</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.02398430438558284</v>
+        <v>0.0293067360743725</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_dire_lex_PMI_q.xlsx
+++ b/Data/Regression/news_index_dire_lex_PMI_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03550580966195583</v>
+        <v>0.1255915029570037</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03401096496013507</v>
+        <v>0.1146362755159847</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03010798952135784</v>
+        <v>0.1053312980348151</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02462131868841515</v>
+        <v>0.1032625629069293</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03682932161588775</v>
+        <v>0.119480468379921</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02250801358267078</v>
+        <v>0.09356752422285648</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01150046428750512</v>
+        <v>0.05833030632804242</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01651502028761895</v>
+        <v>0.08141183633808076</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03240693465493649</v>
+        <v>0.1121962234170142</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02691127188161524</v>
+        <v>0.09462859583592587</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02423024925503571</v>
+        <v>0.09681164119283421</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.003781616532237522</v>
+        <v>0.08071486359879901</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>0.006385739896364941</v>
+        <v>0.08520934074686616</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01377090544802718</v>
+        <v>0.07530772459148813</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01726576282793756</v>
+        <v>0.08722103077994478</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01302807953519282</v>
+        <v>0.09231389400807172</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01155647884703389</v>
+        <v>0.0938512255613913</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.002742943163677448</v>
+        <v>0.07461388953060247</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.001328771892782031</v>
+        <v>0.07647045073240363</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.003466250538120861</v>
+        <v>0.07824615507686103</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.01020848194823634</v>
+        <v>0.07212175536413128</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.006097478200848846</v>
+        <v>0.07167129620506009</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002296312645530131</v>
+        <v>0.07418596548836807</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007441399727191797</v>
+        <v>0.07455567217383002</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>0.006388003226783764</v>
+        <v>0.07969915426297761</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01371050645408651</v>
+        <v>0.07868094696271996</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01244491075070353</v>
+        <v>0.06863951330779683</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.002527082278133973</v>
+        <v>0.0755120022041222</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.00472820083138332</v>
+        <v>0.07905960477171738</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>0.005146843692594761</v>
+        <v>0.06642615054459958</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.007841192932177709</v>
+        <v>0.0657409945087896</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.01243247834184069</v>
+        <v>0.07018920183037061</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.002478445576230547</v>
+        <v>0.06330446147979413</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02655425358897489</v>
+        <v>0.09861860378433462</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0003448591185026333</v>
+        <v>0.08019533601830141</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0007766153363052895</v>
+        <v>0.07181432798687043</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01283278701159674</v>
+        <v>0.08425867735524607</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>0.008712780235139635</v>
+        <v>0.08809987905784394</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02957035625399916</v>
+        <v>0.1043493059409075</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01738293912229865</v>
+        <v>0.1031512037389999</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0621047865479137</v>
+        <v>0.1362776305069308</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03814152173016321</v>
+        <v>0.1077147230171185</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02771359542758376</v>
+        <v>0.09501702847646844</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01125119937414677</v>
+        <v>0.06850353018520323</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05026517539865058</v>
+        <v>0.1266736652943181</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01914005141806927</v>
+        <v>0.09263315758248597</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02787518683554724</v>
+        <v>0.08940551438661588</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>0.002184966430248447</v>
+        <v>0.06700780940103389</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03636757892550383</v>
+        <v>0.1192643075912145</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.04481574567080307</v>
+        <v>0.02805649769240573</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>0.005507321621917172</v>
+        <v>0.07128246273183864</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.007973265573271188</v>
+        <v>0.06976437851283361</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001942739527436703</v>
+        <v>0.08128970888680609</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03533151720217827</v>
+        <v>0.1108460564878426</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08939309578189895</v>
+        <v>0.1550560962926384</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0649552714707556</v>
+        <v>0.1429720247100257</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04628036660675313</v>
+        <v>0.1111850096366249</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02061880822602892</v>
+        <v>0.1081503210081873</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05221667746031905</v>
+        <v>0.1286436255584906</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>0.04968968847647091</v>
+        <v>0.1386279270037599</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>0.04756879023406526</v>
+        <v>0.1166741407616783</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>0.05968703380837581</v>
+        <v>0.1375630732371153</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03654180084403981</v>
+        <v>0.1215947724730424</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>0.05774880759125068</v>
+        <v>0.1338381315947913</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03485974705398358</v>
+        <v>0.1010350524406387</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07208267158530253</v>
+        <v>0.1441839191811866</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08896991080359089</v>
+        <v>0.1583573548469279</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07602845776319452</v>
+        <v>0.164924547702768</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06754875772243564</v>
+        <v>0.1507855724139175</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06063235437997096</v>
+        <v>0.1537977478679016</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07463738207660019</v>
+        <v>0.1573347270534231</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.001167388007943472</v>
+        <v>0.06905579215531461</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.002667582428519348</v>
+        <v>0.07195331075432221</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>0.005273538402033912</v>
+        <v>0.02566414881481113</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>0.009010121253880841</v>
+        <v>0.07330855905765378</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>0.00756799000166896</v>
+        <v>0.07861331547541105</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03249076042433505</v>
+        <v>0.1031574942353946</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02003795473034863</v>
+        <v>0.09458408862048535</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001855828827320929</v>
+        <v>0.08114941937838913</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03544953527760352</v>
+        <v>0.1076668837741096</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04916592428855539</v>
+        <v>0.1272634567992901</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03671458273480745</v>
+        <v>0.1244689105920266</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02611590693951097</v>
+        <v>0.1183124045631252</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0172960698662915</v>
+        <v>0.09799493938779842</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03274814691251769</v>
+        <v>0.1077287278233087</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01685256548535474</v>
+        <v>0.08584345726038392</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01860606930505664</v>
+        <v>0.08874866927508436</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>-9.396375377091825e-06</v>
+        <v>0.07530128737910596</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>0.003742614697072249</v>
+        <v>0.08121361969733079</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.01929977302775149</v>
+        <v>0.05862847583577437</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.007745192636004179</v>
+        <v>0.07463408696483384</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.07047419499353663</v>
+        <v>0.001901593652614093</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.08829750965981964</v>
+        <v>-0.02309243164352057</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.110862433991617</v>
+        <v>-0.04868730284533034</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1076099497752502</v>
+        <v>-0.03652118382125238</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.115084701450155</v>
+        <v>-0.04658301029448926</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1311650521669791</v>
+        <v>-0.07174598102773162</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.03303240009343292</v>
+        <v>0.04718358943543458</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.04430352676123823</v>
+        <v>0.02471395421256125</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.06274921836392072</v>
+        <v>0.008777792542088407</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.06687173599304093</v>
+        <v>0.002743886104090812</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.0718658631595407</v>
+        <v>0.0006962505368755947</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.02386706652430869</v>
+        <v>0.03844749911228573</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>0.007378741797992462</v>
+        <v>0.085016269272043</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>0.003540437108901699</v>
+        <v>0.07936407640740832</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>0.007660130524305549</v>
+        <v>0.07731574731150602</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.0009102208145374869</v>
+        <v>0.06537075570387063</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>0.009394674854155745</v>
+        <v>0.09424723042505499</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>0.002261033142072478</v>
+        <v>0.07980705249200644</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>0.02574606969634912</v>
+        <v>0.1171952743048517</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>0.05072205118679996</v>
+        <v>0.1378778868973672</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0293067360743725</v>
+        <v>0.1130060924226307</v>
       </c>
     </row>
   </sheetData>
